--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo Fernandez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoquintero/Documents/Probabilidad_y_estadistica_1/Proyecto-Probabilidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8004000A-DEFC-4688-9F62-532E8052CFA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE8FFAC-6D38-014D-900E-8B2F354F0DD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E2781E3-2DED-A446-9797-3F25D4E5CF85}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{2E2781E3-2DED-A446-9797-3F25D4E5CF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>2005_1</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>Inflación_COL</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
@@ -1923,20 +1929,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5F1C81-20BB-534E-8414-C24271AE9737}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>63</v>
@@ -1963,7 +1969,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>5.2366666666666672</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2056,7 +2062,7 @@
         <v>4.9366666666666665</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>5.0733333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>4.2866666666666662</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>4.0333333333333341</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2180,7 +2186,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>4.3266666666666671</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>5.246666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>6.1733333333333347</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2310,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>5.4200000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>6.0933333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>6.4333333333333336</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>7.6533333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -2459,7 +2465,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>6.5966666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>4.7700000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>3.2066666666666666</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -2583,7 +2589,7 @@
         <v>2.3633333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -2645,7 +2651,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>2.2766666666666668</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -2707,7 +2713,7 @@
         <v>2.6966666666666668</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>3.2533333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -2769,7 +2775,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>3.4733333333333332</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>3.9033333333333329</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>3.4966666666666661</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>3.3566666666666669</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
@@ -2924,7 +2930,7 @@
         <v>3.0733333333333328</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
@@ -2955,7 +2961,7 @@
         <v>2.7566666666666664</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -2986,7 +2992,7 @@
         <v>1.9133333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>2.2533333333333334</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
@@ -3079,7 +3085,7 @@
         <v>1.8466666666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>2.8133333333333339</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
@@ -3172,7 +3178,7 @@
         <v>2.9233333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
@@ -3203,7 +3209,7 @@
         <v>3.5333333333333337</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -3234,7 +3240,7 @@
         <v>4.246666666666667</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
@@ -3265,7 +3271,7 @@
         <v>4.4899999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>4.8500000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>6.3500000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>44</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>7.6733333333333329</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -3389,7 +3395,7 @@
         <v>8.2433333333333323</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>8.1133333333333333</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>6.0633333333333335</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>48</v>
       </c>
@@ -3482,7 +3488,7 @@
         <v>5.1133333333333333</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>49</v>
       </c>
@@ -3513,7 +3519,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>50</v>
       </c>
@@ -3544,7 +3550,7 @@
         <v>3.7466666666666666</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>51</v>
       </c>
@@ -3575,7 +3581,7 @@
         <v>4.0866666666666669</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>52</v>
       </c>
@@ -3606,7 +3612,7 @@
         <v>3.3966666666666665</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>53</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>3.1633333333333336</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
@@ -3699,7 +3705,7 @@
         <v>3.2600000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
@@ -3730,7 +3736,7 @@
         <v>3.1233333333333331</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
@@ -3792,7 +3798,7 @@
         <v>3.7866666666666666</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
@@ -3823,7 +3829,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
@@ -3854,7 +3860,7 @@
         <v>3.7333333333333329</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
@@ -3885,7 +3891,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>62</v>
       </c>
@@ -3916,14 +3922,14 @@
         <v>1.9399999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E65" s="14"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E66" s="14"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>69</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>4.1656613756613767</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>70</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>14032384.024081446</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:I68" si="1">_xlfn.VAR.S(C2:C64)</f>
+        <f t="shared" ref="C68:H68" si="1">_xlfn.VAR.S(C2:C64)</f>
         <v>97334306.961035445</v>
       </c>
       <c r="D68">
@@ -3993,11 +3999,11 @@
         <v>61780652.079428889</v>
       </c>
       <c r="I68">
-        <f t="shared" si="1"/>
+        <f>_xlfn.VAR.S(I2:I64)</f>
         <v>2.746875854810249</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>71</v>
       </c>
@@ -4006,7 +4012,7 @@
         <v>3745.9823843794898</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:I69" si="2">_xlfn.STDEV.S(C2:C64)</f>
+        <f t="shared" ref="C69:H69" si="2">_xlfn.STDEV.S(C2:C64)</f>
         <v>9865.815068256421</v>
       </c>
       <c r="D69">
@@ -4030,44 +4036,112 @@
         <v>7860.0669258873932</v>
       </c>
       <c r="I69">
-        <f t="shared" si="2"/>
+        <f>_xlfn.STDEV.S(I2:I64)</f>
         <v>1.6573701622782548</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E70" s="14"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E71" s="14"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="15">
+        <f>MIN(B2:B64)</f>
+        <v>19854.275258932787</v>
+      </c>
+      <c r="C70" s="15">
+        <f t="shared" ref="C70:I70" si="3">MIN(C2:C64)</f>
+        <v>17216.113283945448</v>
+      </c>
+      <c r="D70" s="15">
+        <f t="shared" si="3"/>
+        <v>119348.21424077044</v>
+      </c>
+      <c r="E70" s="15">
+        <f t="shared" si="3"/>
+        <v>8.014970827520612</v>
+      </c>
+      <c r="F70" s="15">
+        <f t="shared" si="3"/>
+        <v>638.59567633333336</v>
+      </c>
+      <c r="G70" s="15">
+        <f t="shared" si="3"/>
+        <v>430.23108500000006</v>
+      </c>
+      <c r="H70" s="15">
+        <f t="shared" si="3"/>
+        <v>38284.011000047001</v>
+      </c>
+      <c r="I70" s="15">
+        <f t="shared" si="3"/>
+        <v>1.8466666666666667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="15">
+        <f>MAX(B2:B64)</f>
+        <v>35248.099226554572</v>
+      </c>
+      <c r="C71" s="15">
+        <f t="shared" ref="C71:I71" si="4">MAX(C2:C64)</f>
+        <v>52595.955187872787</v>
+      </c>
+      <c r="D71" s="15">
+        <f t="shared" si="4"/>
+        <v>241371.21655283868</v>
+      </c>
+      <c r="E71" s="15">
+        <f t="shared" si="4"/>
+        <v>20.334270249933372</v>
+      </c>
+      <c r="F71" s="15">
+        <f t="shared" si="4"/>
+        <v>2203.4850303333333</v>
+      </c>
+      <c r="G71" s="15">
+        <f t="shared" si="4"/>
+        <v>1756.5150223333333</v>
+      </c>
+      <c r="H71" s="15">
+        <f t="shared" si="4"/>
+        <v>65242.181999938795</v>
+      </c>
+      <c r="I71" s="15">
+        <f t="shared" si="4"/>
+        <v>8.2433333333333323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E72" s="14"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E73" s="14"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E74" s="14"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E75" s="14"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E76" s="14"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E77" s="14"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E78" s="14"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E79" s="14"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E80" s="14"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E81" s="13"/>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoquintero/Documents/Probabilidad_y_estadistica_1/Proyecto-Probabilidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE8FFAC-6D38-014D-900E-8B2F354F0DD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D64537E-7149-D74E-8AD5-01206E27B517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{2E2781E3-2DED-A446-9797-3F25D4E5CF85}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20680" xr2:uid="{2E2781E3-2DED-A446-9797-3F25D4E5CF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>2005_1</t>
   </si>
@@ -228,24 +228,6 @@
     <t>2020_3</t>
   </si>
   <si>
-    <t>Exportaciones_colombia</t>
-  </si>
-  <si>
-    <t>Importaciones_colombia</t>
-  </si>
-  <si>
-    <t>PIB_Colombia</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Importaciones_USA_Colombia</t>
-  </si>
-  <si>
-    <t>Exportaciones_USA_Colombia</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -255,16 +237,37 @@
     <t>Desv. Estandar</t>
   </si>
   <si>
-    <t>GDP_US</t>
-  </si>
-  <si>
-    <t>Inflación_COL</t>
-  </si>
-  <si>
     <t>MIN</t>
   </si>
   <si>
     <t>MAX</t>
+  </si>
+  <si>
+    <t>Ic</t>
+  </si>
+  <si>
+    <t>Eu</t>
+  </si>
+  <si>
+    <t>Imc</t>
+  </si>
+  <si>
+    <t>Imu</t>
+  </si>
+  <si>
+    <t>Dc</t>
+  </si>
+  <si>
+    <t>Pc</t>
+  </si>
+  <si>
+    <t>Pu</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Ec</t>
   </si>
 </sst>
 </file>
@@ -298,17 +301,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
   <fills count="5">
@@ -337,28 +340,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -374,31 +359,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,22 +484,382 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1628,6 +2066,24 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8C21A26-D1A9-674F-B4E9-12E0602CF440}" name="Tabla1" displayName="Tabla1" ref="A1:I64" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:I64" xr:uid="{A07189C7-F776-DC4D-8DC5-B8A3EB2922BA}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{1557A0F5-E2C4-0049-85B8-2A9A04531117}" name="Columna1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E0F3A0F0-620D-D849-981D-722BB78ADFFC}" name="Ec" dataDxfId="8" dataCellStyle="Millares"/>
+    <tableColumn id="3" xr3:uid="{50AB7055-9B1B-5C4E-BA40-15B3DF69D3AE}" name="Imc" dataDxfId="7" dataCellStyle="Millares"/>
+    <tableColumn id="4" xr3:uid="{8326DF6D-4DA3-D04B-9E03-CAC0AD545B3B}" name="Pc" dataDxfId="6" dataCellStyle="Millares"/>
+    <tableColumn id="5" xr3:uid="{676F85D9-C8FB-DC42-97B0-2A55AD892818}" name="Dc" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{9C1D4110-7721-074F-82EE-8352E9837435}" name="Imu" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{8039A2C8-F533-4741-A58D-A92B5BAAA664}" name="Eu" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{E7986944-C591-5444-AD22-09803548EA2F}" name="Pu" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{2C8CBD2C-02A2-C046-B4EF-B35DB35A0605}" name="Ic" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1929,2222 +2385,2227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5F1C81-20BB-534E-8414-C24271AE9737}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
+      <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>19854.275258932787</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>17216.113283945448</v>
       </c>
       <c r="D2" s="9">
         <v>119348.21424077044</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>13.46529710805652</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="12">
         <f>AVERAGE([1]Hoja1!B19,[1]Hoja1!B20,[1]Hoja1!B21)</f>
         <v>641.908728</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="12">
         <f>AVERAGE([1]Hoja1!B31,[1]Hoja1!B32,[1]Hoja1!B33)</f>
         <v>439.28573599999999</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="12">
         <v>38284.011000047001</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="13">
         <v>5.2366666666666672</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>22306.839919642065</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>19291.467653634281</v>
       </c>
       <c r="D3" s="9">
         <v>125126.32036160388</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>11.96328090773398</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="12">
         <f>AVERAGE([1]Hoja1!B22,[1]Hoja1!B23,[1]Hoja1!B24)</f>
         <v>720.68744000000004</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="12">
         <f>AVERAGE([1]Hoja1!B34,[1]Hoja1!B35,[1]Hoja1!B36)</f>
         <v>469.55785866666662</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="12">
         <v>38730.065999985796</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="13">
         <v>4.96</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>22926.689002473744</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>20413.823068711914</v>
       </c>
       <c r="D4" s="9">
         <v>128645.77495307969</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>11.640740300449366</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="12">
         <f>AVERAGE([1]Hoja1!B25,[1]Hoja1!B26,[1]Hoja1!B27)</f>
         <v>771.53431833333343</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="12">
         <f>AVERAGE([1]Hoja1!B37,[1]Hoja1!B38,[1]Hoja1!B39)</f>
         <v>430.23108500000006</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="12">
         <v>39428.618999994898</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="13">
         <v>4.9366666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>23037.195818951404</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>21786.595993708364</v>
       </c>
       <c r="D5" s="9">
         <v>141732.69044454599</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>10.165597659391526</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="12">
         <f>AVERAGE([1]Hoja1!B28,[1]Hoja1!B29,[1]Hoja1!B30)</f>
         <v>815.66286300000002</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="12">
         <f>AVERAGE([1]Hoja1!B40,[1]Hoja1!B41,[1]Hoja1!B42)</f>
         <v>481.71104166666669</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="12">
         <v>39996.948000030403</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <v>5.0733333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>22412.766896671703</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>19837.600974467088</v>
       </c>
       <c r="D6" s="9">
         <v>127132.28112469544</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>12.584053617595165</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="12">
         <f>AVERAGE([1]Hoja1!C19,[1]Hoja1!C20,[1]Hoja1!C21)</f>
         <v>765.96757500000001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="12">
         <f>AVERAGE([1]Hoja1!C31,[1]Hoja1!C32,[1]Hoja1!C33)</f>
         <v>490.62391533333334</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="12">
         <v>40811.798999923099</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <v>4.2866666666666662</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>23526.668283056501</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>22690.054568542979</v>
       </c>
       <c r="D7" s="9">
         <v>131831.67141360854</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>11.500223517935261</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="12">
         <f>AVERAGE([1]Hoja1!C22,[1]Hoja1!C23,[1]Hoja1!C24)</f>
         <v>844.05590166666661</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="12">
         <f>AVERAGE([1]Hoja1!C34,[1]Hoja1!C35,[1]Hoja1!C36)</f>
         <v>537.1694296666667</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="12">
         <v>41249.418000033002</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="13">
         <v>4.0333333333333341</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>24654.930105674954</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>24813.471967065841</v>
       </c>
       <c r="D8" s="9">
         <v>138473.57647509291</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>12.690507090996837</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="12">
         <f>AVERAGE([1]Hoja1!C25,[1]Hoja1!C26,[1]Hoja1!C27)</f>
         <v>839.94211899999993</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="12">
         <f>AVERAGE([1]Hoja1!C37,[1]Hoja1!C38,[1]Hoja1!C39)</f>
         <v>569.78372566666667</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="12">
         <v>41602.407000015504</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <v>4.54</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>25918.634714596854</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>25283.872489924081</v>
       </c>
       <c r="D9" s="9">
         <v>151997.47098660312</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>11.358537601985169</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="12">
         <f>AVERAGE([1]Hoja1!C28,[1]Hoja1!C29,[1]Hoja1!C30)</f>
         <v>638.59567633333336</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="12">
         <f>AVERAGE([1]Hoja1!C40,[1]Hoja1!C41,[1]Hoja1!C42)</f>
         <v>638.62425333333329</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="12">
         <v>42111.684000065899</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="13">
         <v>4.3266666666666671</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>22865.726841703105</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>22970.327795825582</v>
       </c>
       <c r="D10" s="9">
         <v>135593.03714640398</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>12.882970060461785</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="12">
         <f>AVERAGE([1]Hoja1!D19,[1]Hoja1!D20,[1]Hoja1!D21)</f>
         <v>676.98307633333332</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="12">
         <f>AVERAGE([1]Hoja1!D31,[1]Hoja1!D32,[1]Hoja1!D33)</f>
         <v>638.00617666666665</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="12">
         <v>42625.706999993599</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <v>5.246666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>23894.894650892998</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>25121.951588407355</v>
       </c>
       <c r="D11" s="9">
         <v>140734.41132912389</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>11.199155937518981</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="12">
         <f>AVERAGE([1]Hoja1!D22,[1]Hoja1!D23,[1]Hoja1!D24)</f>
         <v>677.73839566666663</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="12">
         <f>AVERAGE([1]Hoja1!D34,[1]Hoja1!D35,[1]Hoja1!D36)</f>
         <v>652.81523933333335</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="12">
         <v>43147.088999974396</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="13">
         <v>6.1733333333333347</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>26748.902556469613</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <v>27962.406611164119</v>
       </c>
       <c r="D12" s="9">
         <v>147975.39601032983</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <v>10.90905888003399</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="12">
         <f>AVERAGE([1]Hoja1!D25,[1]Hoja1!D26,[1]Hoja1!D27)</f>
         <v>898.08059433333335</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="12">
         <f>AVERAGE([1]Hoja1!D37,[1]Hoja1!D38,[1]Hoja1!D39)</f>
         <v>753.58673666666664</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="12">
         <v>43605.008999895697</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="13">
         <v>5.333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>29006.475950934291</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <v>29406.314004602929</v>
       </c>
       <c r="D13" s="9">
         <v>162154.15551414233</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>9.7858228787439234</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="12">
         <f>AVERAGE([1]Hoja1!D28,[1]Hoja1!D29,[1]Hoja1!D30)</f>
         <v>891.72772699999996</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="12">
         <f>AVERAGE([1]Hoja1!D40,[1]Hoja1!D41,[1]Hoja1!D42)</f>
         <v>808.1508796666667</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="12">
         <v>44044.5030000275</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="13">
         <v>5.4200000000000008</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="9">
         <v>25967.181241976759</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <v>26945.892036647936</v>
       </c>
       <c r="D14" s="9">
         <v>142466.85763797181</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <v>12.09634446723517</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="12">
         <f>AVERAGE([1]Hoja1!E19,[1]Hoja1!E20,[1]Hoja1!E21)</f>
         <v>989.09579500000007</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="12">
         <f>AVERAGE([1]Hoja1!E31,[1]Hoja1!E32,[1]Hoja1!E33)</f>
         <v>961.87018399999999</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="12">
         <v>43953.117000004699</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="13">
         <v>6.0933333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>26741.817552151831</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <v>27940.358800840833</v>
       </c>
       <c r="D15" s="9">
         <v>147479.82166771073</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>11.046654214599563</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="12">
         <f>AVERAGE([1]Hoja1!E22,[1]Hoja1!E23,[1]Hoja1!E24)</f>
         <v>1204.2643916666668</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="12">
         <f>AVERAGE([1]Hoja1!E34,[1]Hoja1!E35,[1]Hoja1!E36)</f>
         <v>928.4216826666667</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="12">
         <v>44416.832999956299</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="13">
         <v>6.4333333333333336</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>26695.035192547355</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="10">
         <v>30601.687397999915</v>
       </c>
       <c r="D16" s="9">
         <v>152924.9818553034</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <v>11.409400112280998</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="12">
         <f>AVERAGE([1]Hoja1!E25,[1]Hoja1!E26,[1]Hoja1!E27)</f>
         <v>1276.7086516666668</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="12">
         <f>AVERAGE([1]Hoja1!E37,[1]Hoja1!E38,[1]Hoja1!E39)</f>
         <v>1059.3414330000001</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="12">
         <v>44505.560999999201</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="13">
         <v>7.6533333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>25199.966013324043</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="10">
         <v>33168.061764511316</v>
       </c>
       <c r="D17" s="9">
         <v>162841.33883901406</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <v>10.510493596994918</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="12">
         <f>AVERAGE([1]Hoja1!E28,[1]Hoja1!E29,[1]Hoja1!E30)</f>
         <v>894.33266233333325</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="12">
         <f>AVERAGE([1]Hoja1!E40,[1]Hoja1!E41,[1]Hoja1!E42)</f>
         <v>862.79018833333328</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="12">
         <v>43678.629000020403</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="13">
         <v>7.78</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>24459.329087103502</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="10">
         <v>26894.702877928677</v>
       </c>
       <c r="D18" s="9">
         <v>142871.53647526138</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <v>12.909681145648895</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="12">
         <f>AVERAGE([1]Hoja1!F19,[1]Hoja1!F20,[1]Hoja1!F21)</f>
         <v>727.4120773333334</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="12">
         <f>AVERAGE([1]Hoja1!F31,[1]Hoja1!F32,[1]Hoja1!F33)</f>
         <v>756.36676266666666</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="12">
         <v>43183.6409999018</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="13">
         <v>6.5966666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>23990.350012464492</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="10">
         <v>25644.028691873431</v>
       </c>
       <c r="D19" s="9">
         <v>148238.14553112964</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <v>11.714322608849436</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="12">
         <f>AVERAGE([1]Hoja1!F22,[1]Hoja1!F23,[1]Hoja1!F24)</f>
         <v>924.90173366666659</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="12">
         <f>AVERAGE([1]Hoja1!F34,[1]Hoja1!F35,[1]Hoja1!F36)</f>
         <v>684.70881166666675</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="12">
         <v>43058.549999984098</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="13">
         <v>4.7700000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>24795.279492975376</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="10">
         <v>26745.967326249236</v>
       </c>
       <c r="D20" s="9">
         <v>153542.51990888026</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <v>12.177160224775903</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="12">
         <f>AVERAGE([1]Hoja1!F25,[1]Hoja1!F26,[1]Hoja1!F27)</f>
         <v>1063.8344716666668</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="12">
         <f>AVERAGE([1]Hoja1!F37,[1]Hoja1!F38,[1]Hoja1!F39)</f>
         <v>783.04555866666669</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="12">
         <v>43260.9359999964</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="13">
         <v>3.2066666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>25913.041407456614</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="10">
         <v>29110.301103948663</v>
       </c>
       <c r="D21" s="9">
         <v>167963.79808472874</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="11">
         <v>11.311791783122175</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="12">
         <f>AVERAGE([1]Hoja1!F28,[1]Hoja1!F29,[1]Hoja1!F30)</f>
         <v>1058.2241756666665</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="12">
         <f>AVERAGE([1]Hoja1!F40,[1]Hoja1!F41,[1]Hoja1!F42)</f>
         <v>926.36533733333329</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="12">
         <v>43884.062999968504</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="13">
         <v>2.3633333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>24227.652023316445</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="10">
         <v>26862.518303785753</v>
       </c>
       <c r="D22" s="9">
         <v>147811.68552463484</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <v>13.008241597660854</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="12">
         <f>AVERAGE([1]Hoja1!G19,[1]Hoja1!G20,[1]Hoja1!G21)</f>
         <v>1111.6903203333334</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="12">
         <f>AVERAGE([1]Hoja1!G31,[1]Hoja1!G32,[1]Hoja1!G33)</f>
         <v>1015.0380026666667</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="12">
         <v>44164.050000003903</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="13">
         <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>25092.710269544576</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="10">
         <v>29021.629843731807</v>
       </c>
       <c r="D23" s="9">
         <v>155186.83717420479</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="11">
         <v>11.971060184991487</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="12">
         <f>AVERAGE([1]Hoja1!G22,[1]Hoja1!G23,[1]Hoja1!G24)</f>
         <v>1320.0413283333335</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="12">
         <f>AVERAGE([1]Hoja1!G34,[1]Hoja1!G35,[1]Hoja1!G36)</f>
         <v>934.57523200000003</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="12">
         <v>44778.293999973299</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="13">
         <v>2.1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>25298.036723959453</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="10">
         <v>30994.713257395983</v>
       </c>
       <c r="D24" s="9">
         <v>159996.88084263631</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="11">
         <v>11.47335741046002</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="12">
         <f>AVERAGE([1]Hoja1!G25,[1]Hoja1!G26,[1]Hoja1!G27)</f>
         <v>1351.9465210000001</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="12">
         <f>AVERAGE([1]Hoja1!G37,[1]Hoja1!G38,[1]Hoja1!G39)</f>
         <v>978.81624866666664</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="12">
         <v>45239.751000029602</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="13">
         <v>2.2766666666666668</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>26584.600983179527</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="10">
         <v>33255.138595086464</v>
       </c>
       <c r="D25" s="9">
         <v>177155.596458524</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="11">
         <v>10.688396794618905</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="12">
         <f>AVERAGE([1]Hoja1!G28,[1]Hoja1!G29,[1]Hoja1!G30)</f>
         <v>1436.0877756666669</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="12">
         <f>AVERAGE([1]Hoja1!G40,[1]Hoja1!G41,[1]Hoja1!G42)</f>
         <v>1094.1256110000002</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="12">
         <v>45722.528999997405</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="13">
         <v>2.6966666666666668</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="9">
         <v>27479.803687717696</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="10">
         <v>32035.704106971276</v>
       </c>
       <c r="D26" s="9">
         <v>157762.78754916365</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="11">
         <v>12.428923691216383</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="12">
         <f>AVERAGE([1]Hoja1!H19,[1]Hoja1!H20,[1]Hoja1!H21)</f>
         <v>1595.7432766666668</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="12">
         <f>AVERAGE([1]Hoja1!H31,[1]Hoja1!H32,[1]Hoja1!H33)</f>
         <v>1168.2662736666666</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="12">
         <v>45857.483999897406</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="13">
         <v>3.2533333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="9">
         <v>28038.153631626432</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="10">
         <v>35553.547994086941</v>
       </c>
       <c r="D27" s="9">
         <v>165412.01753875607</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="11">
         <v>11.113245174405046</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="12">
         <f>AVERAGE([1]Hoja1!H22,[1]Hoja1!H23,[1]Hoja1!H24)</f>
         <v>1962.5578896666666</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="12">
         <f>AVERAGE([1]Hoja1!H34,[1]Hoja1!H35,[1]Hoja1!H36)</f>
         <v>1163.4807433333333</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="12">
         <v>46488.566999970499</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="13">
         <v>3.03</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="9">
         <v>28252.948625609413</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="10">
         <v>37142.300055486165</v>
       </c>
       <c r="D28" s="9">
         <v>172652.39361992312</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="11">
         <v>10.451698839062404</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="12">
         <f>AVERAGE([1]Hoja1!H25,[1]Hoja1!H26,[1]Hoja1!H27)</f>
         <v>1942.9510573333334</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="12">
         <f>AVERAGE([1]Hoja1!H37,[1]Hoja1!H38,[1]Hoja1!H39)</f>
         <v>1183.027421</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="12">
         <v>46775.549999925002</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="13">
         <v>3.4733333333333332</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="9">
         <v>29837.094055046462</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="10">
         <v>39704.447843455629</v>
       </c>
       <c r="D29" s="9">
         <v>188800.80129215718</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="11">
         <v>9.3452006724744479</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="12">
         <f>AVERAGE([1]Hoja1!H28,[1]Hoja1!H29,[1]Hoja1!H30)</f>
         <v>2203.4850303333333</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="12">
         <f>AVERAGE([1]Hoja1!H40,[1]Hoja1!H41,[1]Hoja1!H42)</f>
         <v>1263.7895746666666</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="12">
         <v>47389.380000027901</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="13">
         <v>3.9033333333333329</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>29812.652560960687</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="10">
         <v>36717.048670075797</v>
       </c>
       <c r="D30" s="9">
         <v>166996.88047309549</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="11">
         <v>11.570133506449119</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="12">
         <f>AVERAGE([1]Hoja1!I19,[1]Hoja1!I20,[1]Hoja1!I21)</f>
         <v>2132.3919396666665</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="12">
         <f>AVERAGE([1]Hoja1!I31,[1]Hoja1!I32,[1]Hoja1!I33)</f>
         <v>1235.7976636666667</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="12">
         <v>48059.273999974801</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="13">
         <v>3.4966666666666661</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="9">
         <v>28678.415758504678</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="10">
         <v>38995.407444968972</v>
       </c>
       <c r="D31" s="9">
         <v>173577.62041998119</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="11">
         <v>10.533269754745431</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="12">
         <f>AVERAGE([1]Hoja1!I22,[1]Hoja1!I23,[1]Hoja1!I24)</f>
         <v>2149.0332036666669</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="12">
         <f>AVERAGE([1]Hoja1!I34,[1]Hoja1!I35,[1]Hoja1!I36)</f>
         <v>1311.6976063333334</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="12">
         <v>48456.7709999488</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="13">
         <v>3.3566666666666669</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>30074.405664170074</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="10">
         <v>40953.773102609695</v>
       </c>
       <c r="D32" s="9">
         <v>176900.49539803842</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="11">
         <v>10.184508692210606</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="12">
         <f>AVERAGE([1]Hoja1!I25,[1]Hoja1!I26,[1]Hoja1!I27)</f>
         <v>1995.5191473333332</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="12">
         <f>AVERAGE([1]Hoja1!I37,[1]Hoja1!I38,[1]Hoja1!I39)</f>
         <v>1423.9774786666667</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="12">
         <v>48771.452999989102</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="13">
         <v>3.0733333333333328</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="9">
         <v>30124.526016364562</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="10">
         <v>41310.770782345549</v>
       </c>
       <c r="D33" s="9">
         <v>193940.00370888491</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="11">
         <v>9.2173569034973521</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="12">
         <f>AVERAGE([1]Hoja1!I28,[1]Hoja1!I29,[1]Hoja1!I30)</f>
         <v>1930.2782643333333</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="12">
         <f>AVERAGE([1]Hoja1!I40,[1]Hoja1!I41,[1]Hoja1!I42)</f>
         <v>1480.7948269999999</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="12">
         <v>49076.589000023203</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="13">
         <v>2.7566666666666664</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="9">
         <v>28925.821840538869</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="10">
         <v>39202.699906127484</v>
       </c>
       <c r="D34" s="9">
         <v>171244.7502044444</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="11">
         <v>11.3550984906488</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="12">
         <f>AVERAGE([1]Hoja1!J19,[1]Hoja1!J20,[1]Hoja1!J21)</f>
         <v>1844.243252</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="12">
         <f>AVERAGE([1]Hoja1!J31,[1]Hoja1!J32,[1]Hoja1!J33)</f>
         <v>1494.2785219999998</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="12">
         <v>49708.772999877096</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="13">
         <v>1.9133333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>31129.738703071391</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="10">
         <v>42796.088205777807</v>
       </c>
       <c r="D35" s="9">
         <v>183008.77049865527</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="11">
         <v>9.6104970573637019</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="12">
         <f>AVERAGE([1]Hoja1!J22,[1]Hoja1!J23,[1]Hoja1!J24)</f>
         <v>1946.8597806666667</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="12">
         <f>AVERAGE([1]Hoja1!J34,[1]Hoja1!J35,[1]Hoja1!J36)</f>
         <v>1428.9788856666667</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="12">
         <v>49913.777999989099</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="13">
         <v>2.06</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>30366.709954736609</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="10">
         <v>44397.224672040058</v>
       </c>
       <c r="D36" s="9">
         <v>187401.36404294043</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="11">
         <v>9.3763238406934164</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="12">
         <f>AVERAGE([1]Hoja1!J25,[1]Hoja1!J26,[1]Hoja1!J27)</f>
         <v>1866.0303496666668</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="12">
         <f>AVERAGE([1]Hoja1!J37,[1]Hoja1!J38,[1]Hoja1!J39)</f>
         <v>1530.5940199999998</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="12">
         <v>50546.244000047096</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="13">
         <v>2.2533333333333334</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="9">
         <v>33818.729501653121</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="10">
         <v>45046.987216054651</v>
       </c>
       <c r="D37" s="9">
         <v>206284.11525395993</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="11">
         <v>8.2381242566310888</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="12">
         <f>AVERAGE([1]Hoja1!J28,[1]Hoja1!J29,[1]Hoja1!J30)</f>
         <v>1551.6088333333335</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="12">
         <f>AVERAGE([1]Hoja1!J40,[1]Hoja1!J41,[1]Hoja1!J42)</f>
         <v>1669.8260446666666</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="12">
         <v>51249.410999937798</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="13">
         <v>1.8466666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="9">
         <v>30563.65560271373</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="10">
         <v>42496.281424887376</v>
       </c>
       <c r="D38" s="9">
         <v>182282.85572104307</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="11">
         <v>10.504898363058613</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="12">
         <f>AVERAGE([1]Hoja1!K19,[1]Hoja1!K20,[1]Hoja1!K21)</f>
         <v>1705.603969</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="12">
         <f>AVERAGE([1]Hoja1!K31,[1]Hoja1!K32,[1]Hoja1!K33)</f>
         <v>1600.4575333333335</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="12">
         <v>51313.665000074099</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="13">
         <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="9">
         <v>30288.438520497104</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="10">
         <v>45824.581724212068</v>
       </c>
       <c r="D39" s="9">
         <v>189638.37946240322</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="11">
         <v>8.9859511708619273</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="12">
         <f>AVERAGE([1]Hoja1!K22,[1]Hoja1!K23,[1]Hoja1!K24)</f>
         <v>1408.0086693333333</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="12">
         <f>AVERAGE([1]Hoja1!K34,[1]Hoja1!K35,[1]Hoja1!K36)</f>
         <v>1692.6056823333331</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="12">
         <v>52298.727000078099</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="13">
         <v>2.8133333333333339</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="9">
         <v>31304.255431620753</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="10">
         <v>46415.984719349428</v>
       </c>
       <c r="D40" s="9">
         <v>195558.67375589258</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="11">
         <v>8.8470437953736916</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="12">
         <f>AVERAGE([1]Hoja1!K25,[1]Hoja1!K26,[1]Hoja1!K27)</f>
         <v>1477.4644430000001</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="12">
         <f>AVERAGE([1]Hoja1!K37,[1]Hoja1!K38,[1]Hoja1!K39)</f>
         <v>1639.289066</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="12">
         <v>53164.971000022902</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="13">
         <v>2.9233333333333333</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="9">
         <v>31725.650445168412</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="10">
         <v>50010.152131551127</v>
       </c>
       <c r="D41" s="9">
         <v>214109.09106066119</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="11">
         <v>8.0977307157555298</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="12">
         <f>AVERAGE([1]Hoja1!K28,[1]Hoja1!K29,[1]Hoja1!K30)</f>
         <v>1514.2284906666666</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="12">
         <f>AVERAGE([1]Hoja1!K40,[1]Hoja1!K41,[1]Hoja1!K42)</f>
         <v>1756.5150223333333</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="12">
         <v>53549.735999937708</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="13">
         <v>3.5333333333333337</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="9">
         <v>30702.493914253057</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="10">
         <v>43194.255514982571</v>
       </c>
       <c r="D42" s="9">
         <v>187841.99665840552</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="11">
         <v>9.8340257908483277</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="12">
         <f>AVERAGE([1]Hoja1!L19,[1]Hoja1!L20,[1]Hoja1!L21)</f>
         <v>1219.478433</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="12">
         <f>AVERAGE([1]Hoja1!L31,[1]Hoja1!L32,[1]Hoja1!L33)</f>
         <v>1357.2742206666667</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="12">
         <v>54010.196999910404</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="13">
         <v>4.246666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="9">
         <v>32242.066104962054</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="10">
         <v>44432.975423456257</v>
       </c>
       <c r="D43" s="9">
         <v>195888.91740175121</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="11">
         <v>8.8945297761499145</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="12">
         <f>AVERAGE([1]Hoja1!L22,[1]Hoja1!L23,[1]Hoja1!L24)</f>
         <v>1359.6785540000001</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="12">
         <f>AVERAGE([1]Hoja1!L34,[1]Hoja1!L35,[1]Hoja1!L36)</f>
         <v>1425.1846286666666</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="12">
         <v>54670.730999971202</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="13">
         <v>4.4899999999999993</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="9">
         <v>30375.32536182371</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="10">
         <v>48316.916968507365</v>
       </c>
       <c r="D44" s="9">
         <v>202886.98101223414</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="11">
         <v>8.971375396315354</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="12">
         <f>AVERAGE([1]Hoja1!L25,[1]Hoja1!L26,[1]Hoja1!L27)</f>
         <v>1138.3903223333334</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="12">
         <f>AVERAGE([1]Hoja1!L37,[1]Hoja1!L38,[1]Hoja1!L39)</f>
         <v>1326.1274586666666</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="12">
         <v>55042.274999950605</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="13">
         <v>4.8500000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="9">
         <v>32616.114618961183</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="10">
         <v>46805.852093053822</v>
       </c>
       <c r="D45" s="9">
         <v>218074.10492760915</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="11">
         <v>8.014970827520612</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="12">
         <f>AVERAGE([1]Hoja1!L28,[1]Hoja1!L29,[1]Hoja1!L30)</f>
         <v>975.38701666666657</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="12">
         <f>AVERAGE([1]Hoja1!L40,[1]Hoja1!L41,[1]Hoja1!L42)</f>
         <v>1325.4752293333333</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="12">
         <v>55136.408999921499</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="13">
         <v>6.3500000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="9">
         <v>30130.05148276356</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="10">
         <v>42209.21259221217</v>
       </c>
       <c r="D46" s="9">
         <v>191782.13832631495</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="11">
         <v>10.681753892433463</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="12">
         <f>AVERAGE([1]Hoja1!M19,[1]Hoja1!M20,[1]Hoja1!M21)</f>
         <v>996.0230489999999</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="12">
         <f>AVERAGE([1]Hoja1!M31,[1]Hoja1!M32,[1]Hoja1!M33)</f>
         <v>1036.6669890000001</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="12">
         <v>55410.467999963097</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="13">
         <v>7.6733333333333329</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="9">
         <v>30625.364960061328</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="10">
         <v>43778.704973240558</v>
       </c>
       <c r="D47" s="9">
         <v>199892.39909796359</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="11">
         <v>8.9154712165460293</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="12">
         <f>AVERAGE([1]Hoja1!M22,[1]Hoja1!M23,[1]Hoja1!M24)</f>
         <v>1197.3580856666667</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="12">
         <f>AVERAGE([1]Hoja1!M34,[1]Hoja1!M35,[1]Hoja1!M36)</f>
         <v>1043.7292863333334</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="12">
         <v>55968.621000078303</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="13">
         <v>8.2433333333333323</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="9">
         <v>30671.730412251625</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="10">
         <v>44149.407414903566</v>
       </c>
       <c r="D48" s="9">
         <v>205900.37219315331</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="11">
         <v>9.1138707212161112</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="12">
         <f>AVERAGE([1]Hoja1!M25,[1]Hoja1!M26,[1]Hoja1!M27)</f>
         <v>1266.0582180000001</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="12">
         <f>AVERAGE([1]Hoja1!M37,[1]Hoja1!M38,[1]Hoja1!M39)</f>
         <v>1154.4337330000001</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="12">
         <v>56464.076999978199</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="13">
         <v>8.1133333333333333</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="9">
         <v>34245.85314492348</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="10">
         <v>46141.675019643721</v>
       </c>
       <c r="D49" s="9">
         <v>223914.09038256816</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="11">
         <v>8.1821666191493581</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="12">
         <f>AVERAGE([1]Hoja1!M28,[1]Hoja1!M29,[1]Hoja1!M30)</f>
         <v>1139.969304</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="12">
         <f>AVERAGE([1]Hoja1!M40,[1]Hoja1!M41,[1]Hoja1!M42)</f>
         <v>1114.2653513333332</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="12">
         <v>57097.739999986195</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="13">
         <v>6.0633333333333335</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="9">
         <v>31095.404719521273</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="10">
         <v>43227.219780749154</v>
       </c>
       <c r="D50" s="9">
         <v>193740.59653470648</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="11">
         <v>10.647389699344794</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="12">
         <f>AVERAGE([1]Hoja1!N19,[1]Hoja1!N20,[1]Hoja1!N21)</f>
         <v>1141.2628216666669</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="12">
         <f>AVERAGE([1]Hoja1!N31,[1]Hoja1!N32,[1]Hoja1!N33)</f>
         <v>1274.2516806666665</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="12">
         <v>57712.3049999629</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="13">
         <v>5.1133333333333333</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="9">
         <v>31635.184365801844</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="10">
         <v>44739.875445407932</v>
       </c>
       <c r="D51" s="9">
         <v>202490.25456262982</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="11">
         <v>9.0134136800816833</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="12">
         <f>AVERAGE([1]Hoja1!N22,[1]Hoja1!N23,[1]Hoja1!N24)</f>
         <v>1153.4175786666667</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="12">
         <f>AVERAGE([1]Hoja1!N34,[1]Hoja1!N35,[1]Hoja1!N36)</f>
         <v>1038.5696006666667</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="12">
         <v>58137.695999939999</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="13">
         <v>4.34</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="9">
         <v>31884.021681941758</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="10">
         <v>44861.047662842953</v>
       </c>
       <c r="D52" s="9">
         <v>209366.66421509537</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="11">
         <v>9.3335058036106417</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="12">
         <f>AVERAGE([1]Hoja1!N25,[1]Hoja1!N26,[1]Hoja1!N27)</f>
         <v>1120.3722316666665</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="12">
         <f>AVERAGE([1]Hoja1!N37,[1]Hoja1!N38,[1]Hoja1!N39)</f>
         <v>1014.530557</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="12">
         <v>58851.863999995301</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="13">
         <v>3.7466666666666666</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="9">
         <v>34287.38923273512</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="10">
         <v>45246.857110999976</v>
       </c>
       <c r="D53" s="9">
         <v>227058.48468756833</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="11">
         <v>8.5178462918203</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="12">
         <f>AVERAGE([1]Hoja1!N28,[1]Hoja1!N29,[1]Hoja1!N30)</f>
         <v>1102.3341873333334</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="12">
         <f>AVERAGE([1]Hoja1!N40,[1]Hoja1!N41,[1]Hoja1!N42)</f>
         <v>1130.620983</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="12">
         <v>59813.888999927804</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="13">
         <v>4.0866666666666669</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="9">
         <v>30539.037079996728</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="10">
         <v>42816.371258407635</v>
       </c>
       <c r="D54" s="9">
         <v>197176.58134961972</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="11">
         <v>10.667177920804912</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="12">
         <f>AVERAGE([1]Hoja1!O19,[1]Hoja1!O20,[1]Hoja1!O21)</f>
         <v>1309.4113816666666</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="12">
         <f>AVERAGE([1]Hoja1!O31,[1]Hoja1!O32,[1]Hoja1!O33)</f>
         <v>1069.4378596666666</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="12">
         <v>60726.644999989992</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="13">
         <v>3.3966666666666665</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="9">
         <v>31767.361232077394</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="10">
         <v>46952.987755681883</v>
       </c>
       <c r="D55" s="9">
         <v>208084.23827760434</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="11">
         <v>9.4248819862840509</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="12">
         <f>AVERAGE([1]Hoja1!O22,[1]Hoja1!O23,[1]Hoja1!O24)</f>
         <v>1084.019853</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="12">
         <f>AVERAGE([1]Hoja1!O34,[1]Hoja1!O35,[1]Hoja1!O36)</f>
         <v>1270.6536903333333</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="12">
         <v>61657.959000060291</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="13">
         <v>3.1633333333333336</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="9">
         <v>32443.502461371299</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="10">
         <v>47117.798063199829</v>
       </c>
       <c r="D56" s="9">
         <v>215046.21286935752</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="11">
         <v>9.4530886395761602</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="12">
         <f>AVERAGE([1]Hoja1!O25,[1]Hoja1!O26,[1]Hoja1!O27)</f>
         <v>1088.512755</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="12">
         <f>AVERAGE([1]Hoja1!O37,[1]Hoja1!O38,[1]Hoja1!O39)</f>
         <v>1268.038982</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="12">
         <v>62228.168999998699</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="13">
         <v>3.15</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="9">
         <v>35248.099226554572</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="10">
         <v>51501.842922710661</v>
       </c>
       <c r="D57" s="9">
         <v>233292.96750341833</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="11">
         <v>9.1802117257755977</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="12">
         <f>AVERAGE([1]Hoja1!O28,[1]Hoja1!O29,[1]Hoja1!O30)</f>
         <v>1102.264379</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="12">
         <f>AVERAGE([1]Hoja1!O40,[1]Hoja1!O41,[1]Hoja1!O42)</f>
         <v>1429.8281853333331</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="12">
         <v>62729.5590000128</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="13">
         <v>3.2600000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="9">
         <v>32110.29815949676</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="10">
         <v>47811.382090163628</v>
       </c>
       <c r="D58" s="9">
         <v>203021.42808284517</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="11">
         <v>11.793474411850232</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="12">
         <f>AVERAGE([1]Hoja1!P19,[1]Hoja1!P20,[1]Hoja1!P21)</f>
         <v>1179.9698660000001</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="12">
         <f>AVERAGE([1]Hoja1!P31,[1]Hoja1!P32,[1]Hoja1!P33)</f>
         <v>1231.1129203333332</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="12">
         <v>63345.927000001408</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="13">
         <v>3.1233333333333331</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="9">
         <v>33307.645756543134</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="10">
         <v>51096.914078984337</v>
       </c>
       <c r="D59" s="9">
         <v>214490.6939274953</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="11">
         <v>10.103026510862598</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="12">
         <f>AVERAGE([1]Hoja1!P22,[1]Hoja1!P23,[1]Hoja1!P24)</f>
         <v>1396.461583333333</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="12">
         <f>AVERAGE([1]Hoja1!P34,[1]Hoja1!P35,[1]Hoja1!P36)</f>
         <v>1265.0159816666667</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="12">
         <v>63989.6309999558</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="13">
         <v>3.33</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="9">
         <v>33070.921654812693</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="10">
         <v>52595.955187872787</v>
       </c>
       <c r="D60" s="9">
         <v>222545.87120284169</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="11">
         <v>10.578705255664966</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="12">
         <f>AVERAGE([1]Hoja1!P25,[1]Hoja1!P26,[1]Hoja1!P27)</f>
         <v>1118.7254343333334</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="12">
         <f>AVERAGE([1]Hoja1!P37,[1]Hoja1!P38,[1]Hoja1!P39)</f>
         <v>1136.0549416666665</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="12">
         <v>64620.975000022197</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="13">
         <v>3.7866666666666666</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="9">
         <v>34851.221310444475</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="10">
         <v>52147.517623337859</v>
       </c>
       <c r="D61" s="9">
         <v>241371.21655283868</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="11">
         <v>9.5414408831297841</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="12">
         <f>AVERAGE([1]Hoja1!P28,[1]Hoja1!P29,[1]Hoja1!P30)</f>
         <v>1026.9270453333331</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="12">
         <f>AVERAGE([1]Hoja1!P40,[1]Hoja1!P41,[1]Hoja1!P42)</f>
         <v>1283.3083533333333</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="12">
         <v>65242.181999938795</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="13">
         <v>3.8333333333333335</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="9">
         <v>31319.58885638736</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="10">
         <v>47057.450923016375</v>
       </c>
       <c r="D62" s="9">
         <v>205500.29788914035</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="11">
         <v>12.592455674769559</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="12">
         <f>AVERAGE([1]Hoja1!Q19,[1]Hoja1!Q20,[1]Hoja1!Q21)</f>
         <v>1026.3341943333335</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="12">
         <f>AVERAGE([1]Hoja1!Q31,[1]Hoja1!Q32,[1]Hoja1!Q33)</f>
         <v>1357.3628963333333</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="12">
         <v>64683.416999963796</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="13">
         <v>3.7333333333333329</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="9">
         <v>24153.933588053835</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="10">
         <v>35643.561085790323</v>
       </c>
       <c r="D63" s="9">
         <v>180494.32810719276</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="11">
         <v>20.334270249933372</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="12">
         <f>AVERAGE([1]Hoja1!Q22,[1]Hoja1!Q23,[1]Hoja1!Q24)</f>
         <v>714.16692866666665</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="12">
         <f>AVERAGE([1]Hoja1!Q34,[1]Hoja1!Q35,[1]Hoja1!Q36)</f>
         <v>745.86812166666675</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="12">
         <v>58560.341999971999</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="13">
         <v>2.85</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="15">
         <v>25099.632885377883</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="16">
         <v>41495.99230706934</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="15">
         <v>202513.5145748404</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="17">
         <v>17.583946722142869</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="18">
         <f>AVERAGE([1]Hoja1!Q25,[1]Hoja1!Q26,[1]Hoja1!Q27)</f>
         <v>934.79442066666672</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="18">
         <f>AVERAGE([1]Hoja1!Q37,[1]Hoja1!Q38,[1]Hoja1!Q39)</f>
         <v>862.30346966666673</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="18">
         <v>63510.756000042107</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="19">
         <v>1.9399999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E65" s="14"/>
-      <c r="I65" s="17"/>
+      <c r="E65" s="2"/>
+      <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E66" s="14"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="15">
+      <c r="A67" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="21">
         <f>AVERAGE(B2:B64)</f>
         <v>28523.210193827239</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="21">
         <f t="shared" ref="C67:F67" si="0">AVERAGE(C2:C64)</f>
         <v>37078.155131686275</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="21">
         <f t="shared" si="0"/>
         <v>178050.32302122531</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="21">
         <f t="shared" si="0"/>
         <v>10.820558005117764</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F67" s="21">
         <f t="shared" si="0"/>
         <v>1231.0912628412702</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="21">
         <f>AVERAGE(G2:G64)</f>
         <v>1080.9286129417994</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="21">
         <f>AVERAGE(H2:H64)</f>
         <v>50598.657476175977</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="21">
         <f>AVERAGE(I2:I64)</f>
         <v>4.1656613756613767</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68">
+      <c r="A68" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="12">
         <f>_xlfn.VAR.S(B2:B64)</f>
         <v>14032384.024081446</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="12">
         <f t="shared" ref="C68:H68" si="1">_xlfn.VAR.S(C2:C64)</f>
         <v>97334306.961035445</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="12">
         <f t="shared" si="1"/>
         <v>938803965.83737874</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="12">
         <f t="shared" si="1"/>
         <v>4.2165507794563029</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="12">
         <f t="shared" si="1"/>
         <v>173308.69413705316</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="12">
         <f t="shared" si="1"/>
         <v>117639.67716631221</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="12">
         <f t="shared" si="1"/>
         <v>61780652.079428889</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="12">
         <f>_xlfn.VAR.S(I2:I64)</f>
         <v>2.746875854810249</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="A69" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69">
+      <c r="A69" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="12">
         <f>_xlfn.STDEV.S(B2:B64)</f>
         <v>3745.9823843794898</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="12">
         <f t="shared" ref="C69:H69" si="2">_xlfn.STDEV.S(C2:C64)</f>
         <v>9865.815068256421</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="12">
         <f t="shared" si="2"/>
         <v>30639.908058566016</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="12">
         <f t="shared" si="2"/>
         <v>2.0534241596553553</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="12">
         <f t="shared" si="2"/>
         <v>416.30360812399061</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="12">
         <f t="shared" si="2"/>
         <v>342.98640959418816</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="12">
         <f t="shared" si="2"/>
         <v>7860.0669258873932</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="12">
         <f>_xlfn.STDEV.S(I2:I64)</f>
         <v>1.6573701622782548</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="15">
+      <c r="A70" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="21">
         <f>MIN(B2:B64)</f>
         <v>19854.275258932787</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="21">
         <f t="shared" ref="C70:I70" si="3">MIN(C2:C64)</f>
         <v>17216.113283945448</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="21">
         <f t="shared" si="3"/>
         <v>119348.21424077044</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="21">
         <f t="shared" si="3"/>
         <v>8.014970827520612</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F70" s="21">
         <f t="shared" si="3"/>
         <v>638.59567633333336</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="21">
         <f t="shared" si="3"/>
         <v>430.23108500000006</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H70" s="21">
         <f t="shared" si="3"/>
         <v>38284.011000047001</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="21">
         <f t="shared" si="3"/>
         <v>1.8466666666666667</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="15">
+      <c r="A71" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="21">
         <f>MAX(B2:B64)</f>
         <v>35248.099226554572</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="21">
         <f t="shared" ref="C71:I71" si="4">MAX(C2:C64)</f>
         <v>52595.955187872787</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="21">
         <f t="shared" si="4"/>
         <v>241371.21655283868</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="21">
         <f t="shared" si="4"/>
         <v>20.334270249933372</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="21">
         <f t="shared" si="4"/>
         <v>2203.4850303333333</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="21">
         <f t="shared" si="4"/>
         <v>1756.5150223333333</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="21">
         <f t="shared" si="4"/>
         <v>65242.181999938795</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="21">
         <f t="shared" si="4"/>
         <v>8.2433333333333323</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E72" s="14"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E73" s="14"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E74" s="14"/>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E75" s="14"/>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E76" s="14"/>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E77" s="14"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E78" s="14"/>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E79" s="14"/>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E80" s="14"/>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="13"/>
+      <c r="E81" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoquintero/Documents/Probabilidad_y_estadistica_1/Proyecto-Probabilidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D64537E-7149-D74E-8AD5-01206E27B517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6419DC17-608A-DF44-8080-BCF971F4E057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20680" xr2:uid="{2E2781E3-2DED-A446-9797-3F25D4E5CF85}"/>
   </bookViews>
@@ -2385,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5F1C81-20BB-534E-8414-C24271AE9737}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4392,7 +4392,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="21">
-        <f>AVERAGE(B2:B64)</f>
+        <f>SUM(Tabla1[Ec])/63</f>
         <v>28523.210193827239</v>
       </c>
       <c r="C67" s="21">
